--- a/诚德行软件设计/需求文档1.xlsx
+++ b/诚德行软件设计/需求文档1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="需求整理" sheetId="1" r:id="rId1"/>
@@ -1947,7 +1947,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2740,6 +2740,189 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2754,189 +2937,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2944,74 +2944,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3028,7 +2960,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="BBDEB6"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3309,154 +3241,154 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.36328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" style="5" customWidth="1"/>
     <col min="6" max="6" width="8" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.6328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="5" customWidth="1"/>
     <col min="11" max="11" width="14" style="5" customWidth="1"/>
-    <col min="12" max="12" width="12.875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="15.625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="5" customWidth="1"/>
+    <col min="12" max="12" width="12.90625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="15.6328125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" style="5" customWidth="1"/>
     <col min="15" max="15" width="14" style="5" customWidth="1"/>
     <col min="16" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
-    </row>
-    <row r="2" spans="1:10" ht="27" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>303</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="23"/>
     </row>
-    <row r="3" spans="1:10" ht="27" customHeight="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36" t="s">
+    <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="1:10" ht="27" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+    <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="1:10" ht="27" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="38" t="s">
+    <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
+      <c r="B5" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="23"/>
     </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="72"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:10" ht="27" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+    <row r="7" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="72"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="23"/>
     </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39" t="s">
+    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="72"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="1:10" ht="27" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="40" t="s">
+    <row r="9" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="72"/>
+      <c r="B9" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="23"/>
     </row>
-    <row r="10" spans="1:10" ht="27" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="39" t="s">
+    <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="72"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:10" ht="27" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="39" t="s">
+    <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="72"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="37"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:10" ht="27" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="38" t="s">
+    <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="72"/>
+      <c r="B12" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:10" ht="27" customHeight="1" thickBot="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="42" t="s">
+    <row r="13" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="72"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="D13" s="43"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="1:10" ht="27" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="44" t="s">
+    <row r="14" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="72"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25" t="s">
         <v>253</v>
@@ -3466,15 +3398,15 @@
       <c r="I14" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="J14" s="46"/>
-    </row>
-    <row r="15" spans="1:10" ht="27" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="47" t="s">
+      <c r="J14" s="39"/>
+    </row>
+    <row r="15" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="72"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="41" t="s">
         <v>248</v>
       </c>
       <c r="E15" s="26" t="s">
@@ -3492,13 +3424,13 @@
       <c r="I15" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="J15" s="49"/>
-    </row>
-    <row r="16" spans="1:10" ht="27" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
+      <c r="J15" s="42"/>
+    </row>
+    <row r="16" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="72"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
@@ -3506,15 +3438,15 @@
       <c r="I16" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="J16" s="49"/>
-    </row>
-    <row r="17" spans="1:10" ht="27" customHeight="1" thickBot="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="44" t="s">
+      <c r="J16" s="42"/>
+    </row>
+    <row r="17" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="72"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="D17" s="48"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -3522,123 +3454,123 @@
       <c r="I17" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="J17" s="50" t="s">
+      <c r="J17" s="43" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="27" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="44" t="s">
+    <row r="18" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="72"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="D18" s="51"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
     </row>
-    <row r="19" spans="1:10" ht="27" customHeight="1">
-      <c r="A19" s="35"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="44" t="s">
+    <row r="19" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="72"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="D19" s="51"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
     </row>
-    <row r="20" spans="1:10" ht="27" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="44" t="s">
+    <row r="20" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="72"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="D20" s="37"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="26"/>
     </row>
-    <row r="21" spans="1:10" ht="27" customHeight="1">
-      <c r="A21" s="35"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="37" t="s">
+    <row r="21" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="72"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="37"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="23"/>
     </row>
-    <row r="22" spans="1:10" ht="27" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="37" t="s">
+    <row r="22" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="72"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="37"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="23"/>
     </row>
-    <row r="23" spans="1:10" ht="27" customHeight="1">
-      <c r="A23" s="35"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="37" t="s">
+    <row r="23" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="72"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D23" s="37"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="23"/>
     </row>
-    <row r="24" spans="1:10" ht="27" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="37" t="s">
+    <row r="24" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="72"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="D24" s="37"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="23"/>
     </row>
-    <row r="25" spans="1:10" ht="27" customHeight="1" thickBot="1">
-      <c r="A25" s="35"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="37"/>
+    <row r="25" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="72"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="23"/>
     </row>
-    <row r="26" spans="1:10" ht="27" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="52" t="s">
+    <row r="26" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="72"/>
+      <c r="B26" s="75" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="F26" s="55" t="s">
+      <c r="F26" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="G26" s="56" t="s">
+      <c r="G26" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="H26" s="57" t="s">
+      <c r="H26" s="49" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="27" customHeight="1">
-      <c r="A27" s="35"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="59" t="s">
+    <row r="27" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="72"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="30" t="s">
         <v>258</v>
       </c>
       <c r="E27" s="23" t="s">
@@ -3647,415 +3579,415 @@
       <c r="F27" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="G27" s="60" t="s">
+      <c r="G27" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="H27" s="61" t="s">
+      <c r="H27" s="52" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="27" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="59" t="s">
+    <row r="28" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="72"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="30" t="s">
         <v>267</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
-      <c r="H28" s="49"/>
-    </row>
-    <row r="29" spans="1:10" ht="27" customHeight="1" thickBot="1">
-      <c r="A29" s="35"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="63" t="s">
+      <c r="H28" s="42"/>
+    </row>
+    <row r="29" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="72"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="34" t="s">
         <v>267</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
-      <c r="H29" s="64"/>
-    </row>
-    <row r="30" spans="1:10" ht="27" customHeight="1" thickBot="1">
-      <c r="A30" s="35"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="41"/>
+      <c r="H29" s="54"/>
+    </row>
+    <row r="30" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="72"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="23"/>
     </row>
-    <row r="31" spans="1:10" ht="27" customHeight="1">
-      <c r="A31" s="67"/>
-      <c r="B31" s="68" t="s">
+    <row r="31" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="73"/>
+      <c r="B31" s="82" t="s">
         <v>291</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="57" t="s">
         <v>293</v>
       </c>
-      <c r="D31" s="70"/>
+      <c r="D31" s="58"/>
       <c r="E31" s="23"/>
     </row>
-    <row r="32" spans="1:10" ht="27" customHeight="1">
-      <c r="A32" s="67"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="72" t="s">
+    <row r="32" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="73"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="59" t="s">
         <v>295</v>
       </c>
-      <c r="D32" s="73"/>
+      <c r="D32" s="60"/>
       <c r="E32" s="23"/>
     </row>
-    <row r="33" spans="1:5" ht="27" customHeight="1">
-      <c r="A33" s="67"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="37" t="s">
+    <row r="33" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="73"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="D33" s="73"/>
+      <c r="D33" s="60"/>
       <c r="E33" s="23"/>
     </row>
-    <row r="34" spans="1:5" ht="27" customHeight="1" thickBot="1">
-      <c r="A34" s="67"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="75" t="s">
+    <row r="34" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="73"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="D34" s="76"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="23"/>
     </row>
-    <row r="35" spans="1:5" ht="27" customHeight="1" thickBot="1">
-      <c r="A35" s="35"/>
+    <row r="35" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="72"/>
       <c r="B35" s="23"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="54"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="23"/>
     </row>
-    <row r="36" spans="1:5" ht="27" customHeight="1">
-      <c r="A36" s="35"/>
-      <c r="B36" s="77" t="s">
+    <row r="36" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="72"/>
+      <c r="B36" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="C36" s="85" t="s">
         <v>296</v>
       </c>
-      <c r="D36" s="79" t="s">
+      <c r="D36" s="63" t="s">
         <v>290</v>
       </c>
       <c r="E36" s="23"/>
     </row>
-    <row r="37" spans="1:5" ht="27" customHeight="1">
-      <c r="A37" s="35"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="37" t="s">
+    <row r="37" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="72"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="30" t="s">
         <v>274</v>
       </c>
       <c r="E37" s="23"/>
     </row>
-    <row r="38" spans="1:5" ht="27" customHeight="1">
-      <c r="A38" s="35"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="37" t="s">
+    <row r="38" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="72"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="30" t="s">
         <v>210</v>
       </c>
       <c r="E38" s="23"/>
     </row>
-    <row r="39" spans="1:5" ht="27" customHeight="1">
-      <c r="A39" s="35"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="37" t="s">
+    <row r="39" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="72"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="30" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="27" customHeight="1">
-      <c r="A40" s="35"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="37" t="s">
+    <row r="40" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="72"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="30" t="s">
         <v>270</v>
       </c>
       <c r="E40" s="23"/>
     </row>
-    <row r="41" spans="1:5" ht="27" customHeight="1">
-      <c r="A41" s="35"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="37" t="s">
+    <row r="41" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="72"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="30" t="s">
         <v>275</v>
       </c>
       <c r="E41" s="23"/>
     </row>
-    <row r="42" spans="1:5" ht="27" customHeight="1">
-      <c r="A42" s="35"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="37" t="s">
+    <row r="42" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="72"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="30" t="s">
         <v>273</v>
       </c>
       <c r="E42" s="23"/>
     </row>
-    <row r="43" spans="1:5" ht="27" customHeight="1">
-      <c r="A43" s="35"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="37" t="s">
+    <row r="43" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="72"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="30" t="s">
         <v>280</v>
       </c>
       <c r="E43" s="23"/>
     </row>
-    <row r="44" spans="1:5" ht="27" customHeight="1">
-      <c r="A44" s="35"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="84" t="s">
+    <row r="44" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="72"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="30" t="s">
         <v>281</v>
       </c>
       <c r="E44" s="23"/>
     </row>
-    <row r="45" spans="1:5" ht="27" customHeight="1">
-      <c r="A45" s="35"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="37"/>
+    <row r="45" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="72"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="30"/>
       <c r="E45" s="23"/>
     </row>
-    <row r="46" spans="1:5" ht="27" customHeight="1">
-      <c r="A46" s="35"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="78" t="s">
+    <row r="46" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="72"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="85" t="s">
         <v>277</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D46" s="30" t="s">
         <v>276</v>
       </c>
       <c r="E46" s="23"/>
     </row>
-    <row r="47" spans="1:5" ht="27" customHeight="1">
-      <c r="A47" s="35"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="37" t="s">
+    <row r="47" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="72"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="30" t="s">
         <v>278</v>
       </c>
       <c r="E47" s="23"/>
     </row>
-    <row r="48" spans="1:5" ht="27" customHeight="1">
-      <c r="A48" s="35"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="37" t="s">
+    <row r="48" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="72"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="30" t="s">
         <v>282</v>
       </c>
       <c r="E48" s="23"/>
     </row>
-    <row r="49" spans="1:5" ht="27" customHeight="1">
-      <c r="A49" s="35"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="37" t="s">
+    <row r="49" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="72"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="30" t="s">
         <v>283</v>
       </c>
       <c r="E49" s="23"/>
     </row>
-    <row r="50" spans="1:5" ht="21" customHeight="1">
-      <c r="A50" s="35"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="37" t="s">
+    <row r="50" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="72"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="30" t="s">
         <v>287</v>
       </c>
       <c r="E50" s="23"/>
     </row>
-    <row r="51" spans="1:5" ht="27" customHeight="1">
-      <c r="A51" s="35"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="79" t="s">
+    <row r="51" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="72"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="63" t="s">
         <v>286</v>
       </c>
       <c r="E51" s="23"/>
     </row>
-    <row r="52" spans="1:5" ht="27" customHeight="1">
-      <c r="A52" s="35"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="79"/>
+    <row r="52" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="72"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="63"/>
       <c r="E52" s="23"/>
     </row>
-    <row r="53" spans="1:5" ht="27" customHeight="1">
-      <c r="A53" s="35"/>
-      <c r="B53" s="82"/>
-      <c r="C53" s="78" t="s">
+    <row r="53" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="72"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="D53" s="37" t="s">
+      <c r="D53" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="23"/>
     </row>
-    <row r="54" spans="1:5" ht="27" customHeight="1">
-      <c r="A54" s="35"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="37" t="s">
+    <row r="54" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="72"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="30" t="s">
         <v>7</v>
       </c>
       <c r="E54" s="23"/>
     </row>
-    <row r="55" spans="1:5" ht="27" customHeight="1">
-      <c r="A55" s="35"/>
-      <c r="B55" s="82"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="37" t="s">
+    <row r="55" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="72"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E55" s="23"/>
     </row>
-    <row r="56" spans="1:5" ht="27" customHeight="1" thickBot="1">
-      <c r="A56" s="35"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="38" t="s">
+    <row r="56" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="72"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D56" s="37"/>
+      <c r="D56" s="30"/>
       <c r="E56" s="23"/>
     </row>
-    <row r="57" spans="1:5" ht="27" customHeight="1">
-      <c r="A57" s="35"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="72" t="s">
+    <row r="57" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="72"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="D57" s="37"/>
+      <c r="D57" s="30"/>
       <c r="E57" s="23"/>
     </row>
-    <row r="58" spans="1:5" ht="27" customHeight="1">
-      <c r="A58" s="35"/>
-      <c r="B58" s="87"/>
-      <c r="C58" s="72" t="s">
+    <row r="58" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="72"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="59" t="s">
         <v>289</v>
       </c>
-      <c r="D58" s="37"/>
+      <c r="D58" s="30"/>
       <c r="E58" s="23"/>
     </row>
-    <row r="59" spans="1:5" ht="27" customHeight="1">
-      <c r="A59" s="35"/>
-      <c r="B59" s="87"/>
-      <c r="C59" s="37" t="s">
+    <row r="59" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="72"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="37"/>
+      <c r="D59" s="30"/>
       <c r="E59" s="23"/>
     </row>
-    <row r="60" spans="1:5" ht="27" customHeight="1">
-      <c r="A60" s="35"/>
-      <c r="B60" s="87"/>
-      <c r="C60" s="37" t="s">
+    <row r="60" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="72"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="37"/>
+      <c r="D60" s="30"/>
       <c r="E60" s="23"/>
     </row>
-    <row r="61" spans="1:5" ht="27" customHeight="1">
-      <c r="A61" s="35"/>
+    <row r="61" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="72"/>
       <c r="B61" s="88" t="s">
         <v>300</v>
       </c>
-      <c r="C61" s="37" t="s">
+      <c r="C61" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="89" t="s">
+      <c r="D61" s="69" t="s">
         <v>299</v>
       </c>
       <c r="E61" s="23"/>
     </row>
-    <row r="62" spans="1:5" ht="27" customHeight="1">
-      <c r="A62" s="35"/>
+    <row r="62" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="72"/>
       <c r="B62" s="88"/>
-      <c r="C62" s="37" t="s">
+      <c r="C62" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="90"/>
+      <c r="D62" s="70"/>
       <c r="E62" s="23"/>
     </row>
-    <row r="63" spans="1:5" ht="27" customHeight="1">
-      <c r="A63" s="35"/>
+    <row r="63" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="72"/>
       <c r="B63" s="88"/>
-      <c r="C63" s="37" t="s">
+      <c r="C63" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="90"/>
+      <c r="D63" s="70"/>
       <c r="E63" s="23"/>
     </row>
-    <row r="64" spans="1:5" ht="27" customHeight="1">
-      <c r="A64" s="35"/>
+    <row r="64" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="72"/>
       <c r="B64" s="88"/>
-      <c r="C64" s="37" t="s">
+      <c r="C64" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="91"/>
+      <c r="D64" s="71"/>
       <c r="E64" s="23"/>
     </row>
-    <row r="65" spans="1:5" ht="27" customHeight="1">
-      <c r="A65" s="35"/>
-      <c r="B65" s="92"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="54"/>
+    <row r="65" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="72"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="46"/>
       <c r="E65" s="23"/>
     </row>
-    <row r="66" spans="1:5" ht="27" customHeight="1">
-      <c r="A66" s="35"/>
-      <c r="B66" s="93" t="s">
+    <row r="66" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="72"/>
+      <c r="B66" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="C66" s="93" t="s">
+      <c r="C66" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="54"/>
+      <c r="D66" s="46"/>
       <c r="E66" s="23"/>
     </row>
-    <row r="67" spans="1:5" ht="27" customHeight="1">
-      <c r="A67" s="35"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
+    <row r="67" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="72"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
       <c r="E67" s="23"/>
     </row>
-    <row r="68" spans="1:5" ht="27" customHeight="1">
-      <c r="A68" s="35"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
+    <row r="68" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="72"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
       <c r="E68" s="23"/>
     </row>
-    <row r="69" spans="1:5" ht="27" customHeight="1"/>
-    <row r="70" spans="1:5" ht="27" customHeight="1"/>
-    <row r="71" spans="1:5" ht="27" customHeight="1"/>
-    <row r="72" spans="1:5" ht="27" customHeight="1"/>
-    <row r="73" spans="1:5" ht="27" customHeight="1"/>
-    <row r="74" spans="1:5" ht="27" customHeight="1"/>
-    <row r="75" spans="1:5" ht="27" customHeight="1"/>
-    <row r="76" spans="1:5" ht="27" customHeight="1"/>
-    <row r="77" spans="1:5" ht="27" customHeight="1"/>
-    <row r="78" spans="1:5" ht="27" customHeight="1"/>
-    <row r="79" spans="1:5" ht="27" customHeight="1"/>
-    <row r="80" spans="1:5" ht="27" customHeight="1"/>
-    <row r="81" spans="12:14" ht="27" customHeight="1"/>
-    <row r="82" spans="12:14" ht="27" customHeight="1"/>
-    <row r="83" spans="12:14" ht="27" customHeight="1"/>
-    <row r="84" spans="12:14" ht="27" customHeight="1"/>
-    <row r="85" spans="12:14" ht="27" customHeight="1"/>
-    <row r="86" spans="12:14" ht="27" customHeight="1"/>
-    <row r="87" spans="12:14" ht="27" customHeight="1"/>
-    <row r="89" spans="12:14">
+    <row r="69" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="12:14" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="12:14" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="12:14" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="12:14" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="12:14" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="12:14" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="12:14" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L89" s="1"/>
       <c r="N89" s="1"/>
     </row>
@@ -4087,20 +4019,20 @@
       <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>148</v>
       </c>
@@ -4129,7 +4061,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>149</v>
       </c>
@@ -4158,7 +4090,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>150</v>
       </c>
@@ -4187,7 +4119,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>151</v>
       </c>
@@ -4216,7 +4148,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>152</v>
       </c>
@@ -4245,7 +4177,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>153</v>
       </c>
@@ -4274,7 +4206,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>154</v>
       </c>
@@ -4303,7 +4235,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>155</v>
       </c>
@@ -4332,7 +4264,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>156</v>
       </c>
@@ -4361,7 +4293,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="27">
+    <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>157</v>
       </c>
@@ -4390,7 +4322,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>158</v>
       </c>
@@ -4415,7 +4347,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="40.5">
+    <row r="12" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
@@ -4439,7 +4371,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
@@ -4461,7 +4393,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
@@ -4481,7 +4413,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="27">
+    <row r="15" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
         <v>21</v>
@@ -4504,7 +4436,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
@@ -4524,7 +4456,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
@@ -4544,7 +4476,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
         <v>59</v>
@@ -4562,7 +4494,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="3" t="s">
         <v>60</v>
@@ -4580,7 +4512,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="3" t="s">
         <v>61</v>
@@ -4595,7 +4527,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="2:9" ht="27">
+    <row r="21" spans="2:9" ht="28" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="3" t="s">
         <v>62</v>
@@ -4610,7 +4542,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="3" t="s">
         <v>63</v>
@@ -4623,7 +4555,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="3" t="s">
         <v>64</v>
@@ -4636,7 +4568,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="3" t="s">
         <v>65</v>
@@ -4649,7 +4581,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -4660,7 +4592,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="2:9" ht="40.5">
+    <row r="26" spans="2:9" ht="42" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="4" t="s">
         <v>162</v>
@@ -4673,7 +4605,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="27">
+    <row r="27" spans="2:9" ht="28" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="15" t="s">
         <v>219</v>
@@ -4686,7 +4618,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -4697,7 +4629,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4708,7 +4640,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F30" s="1"/>
     </row>
   </sheetData>
@@ -4727,12 +4659,12 @@
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>179</v>
       </c>
@@ -4748,7 +4680,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -4766,7 +4698,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -4784,7 +4716,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -4802,7 +4734,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>186</v>
       </c>
@@ -4813,24 +4745,24 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>194</v>
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="28" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="C14" s="29"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="C14" s="90"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>199</v>
       </c>
@@ -4839,7 +4771,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
@@ -4849,14 +4781,14 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
@@ -4865,7 +4797,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
@@ -4874,21 +4806,21 @@
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="27">
+    <row r="20" spans="1:9" ht="28" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
@@ -4897,13 +4829,13 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>200</v>
       </c>
@@ -4912,32 +4844,32 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="28" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="C25" s="29"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="C25" s="90"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>197</v>
       </c>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>179</v>
       </c>
@@ -4962,7 +4894,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>1</v>
       </c>
@@ -4983,7 +4915,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>2</v>
       </c>
@@ -5004,7 +4936,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>3</v>
       </c>
@@ -5025,7 +4957,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C37" s="12" t="s">
         <v>205</v>
       </c>
@@ -5050,18 +4982,18 @@
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="3.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27">
+    <row r="1" spans="1:12" ht="28" x14ac:dyDescent="0.25">
       <c r="H1" s="22" t="s">
         <v>220</v>
       </c>
@@ -5078,7 +5010,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="27">
+    <row r="2" spans="1:12" ht="28" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>221</v>
       </c>
@@ -5111,7 +5043,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="D3" s="3" t="s">
         <v>227</v>
@@ -5137,7 +5069,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>218</v>
       </c>
@@ -5166,7 +5098,7 @@
       </c>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="8"/>
       <c r="D5" s="3" t="s">
@@ -5193,7 +5125,7 @@
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>213</v>
       </c>
@@ -5208,7 +5140,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>214</v>
       </c>
@@ -5223,7 +5155,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>215</v>
       </c>
@@ -5238,7 +5170,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>216</v>
       </c>
@@ -5253,7 +5185,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>217</v>
       </c>
@@ -5268,27 +5200,27 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="4:17" ht="14.25" thickBot="1"/>
-    <row r="19" spans="4:17" ht="14.25" thickBot="1">
-      <c r="L19" s="30" t="s">
+    <row r="18" spans="4:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="4:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="31"/>
-    </row>
-    <row r="20" spans="4:17" ht="14.25" thickBot="1">
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="92"/>
+    </row>
+    <row r="20" spans="4:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="3" t="s">
         <v>38</v>
       </c>
@@ -5297,21 +5229,21 @@
       </c>
       <c r="L20" s="19"/>
     </row>
-    <row r="21" spans="4:17" ht="14.25" thickBot="1">
-      <c r="I21" s="30" t="s">
+    <row r="21" spans="4:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="J21" s="31"/>
+      <c r="J21" s="92"/>
       <c r="K21" s="19"/>
       <c r="L21" s="20"/>
-      <c r="N21" s="30" t="s">
+      <c r="N21" s="91" t="s">
         <v>236</v>
       </c>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="31"/>
-    </row>
-    <row r="22" spans="4:17" ht="14.25" thickBot="1">
+      <c r="O21" s="93"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="92"/>
+    </row>
+    <row r="22" spans="4:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="3" t="s">
         <v>45</v>
       </c>
@@ -5323,34 +5255,34 @@
       </c>
       <c r="M22" s="21"/>
     </row>
-    <row r="23" spans="4:17" ht="14.25" thickBot="1">
+    <row r="23" spans="4:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N23" s="20"/>
     </row>
-    <row r="24" spans="4:17" ht="14.25" thickBot="1">
+    <row r="24" spans="4:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N24" s="30" t="s">
+      <c r="N24" s="91" t="s">
         <v>237</v>
       </c>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="31"/>
-    </row>
-    <row r="25" spans="4:17">
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="92"/>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="4:17">
+    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D26" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="4:17">
+    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D27" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="4:17">
+    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D28" s="3" t="s">
         <v>50</v>
       </c>
@@ -5358,17 +5290,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="4:17">
+    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D30" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="4:17" ht="27">
+    <row r="31" spans="4:17" ht="28" x14ac:dyDescent="0.25">
       <c r="D31" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="4:6" ht="27">
+    <row r="33" spans="4:6" ht="28" x14ac:dyDescent="0.25">
       <c r="D33" s="3" t="s">
         <v>54</v>
       </c>
@@ -5376,7 +5308,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="4:6" ht="27">
+    <row r="34" spans="4:6" ht="28" x14ac:dyDescent="0.25">
       <c r="D34" s="3" t="s">
         <v>55</v>
       </c>
@@ -5384,7 +5316,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="4:6" ht="27">
+    <row r="35" spans="4:6" ht="28" x14ac:dyDescent="0.25">
       <c r="D35" s="3" t="s">
         <v>56</v>
       </c>
@@ -5392,7 +5324,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="4:6" ht="27">
+    <row r="38" spans="4:6" ht="28" x14ac:dyDescent="0.25">
       <c r="D38" s="3" t="s">
         <v>60</v>
       </c>
@@ -5400,22 +5332,22 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="4:6" ht="27">
+    <row r="39" spans="4:6" ht="28" x14ac:dyDescent="0.25">
       <c r="D39" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="4:6" ht="27">
+    <row r="41" spans="4:6" ht="28" x14ac:dyDescent="0.25">
       <c r="D41" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:6">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D42" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="4:6" ht="27">
+    <row r="43" spans="4:6" ht="28" x14ac:dyDescent="0.25">
       <c r="D43" s="3" t="s">
         <v>65</v>
       </c>
@@ -5442,7 +5374,7 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5458,9 +5390,9 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:5">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>242</v>
       </c>
